--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.04487991119348</v>
+        <v>1.138252333333333</v>
       </c>
       <c r="H2">
-        <v>1.04487991119348</v>
+        <v>3.414757</v>
       </c>
       <c r="I2">
-        <v>0.004153064805017314</v>
+        <v>0.004456632015781552</v>
       </c>
       <c r="J2">
-        <v>0.004153064805017314</v>
+        <v>0.004456632015781552</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.90002383905612</v>
+        <v>2.473323333333334</v>
       </c>
       <c r="N2">
-        <v>0.90002383905612</v>
+        <v>7.41997</v>
       </c>
       <c r="O2">
-        <v>0.309292815676045</v>
+        <v>0.5382827202858395</v>
       </c>
       <c r="P2">
-        <v>0.309292815676045</v>
+        <v>0.5382827202858395</v>
       </c>
       <c r="Q2">
-        <v>0.9404168290249736</v>
+        <v>2.815266055254444</v>
       </c>
       <c r="R2">
-        <v>0.9404168290249736</v>
+        <v>25.33739449729</v>
       </c>
       <c r="S2">
-        <v>0.00128451310722889</v>
+        <v>0.002398928004767858</v>
       </c>
       <c r="T2">
-        <v>0.00128451310722889</v>
+        <v>0.002398928004767858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.04487991119348</v>
+        <v>1.138252333333333</v>
       </c>
       <c r="H3">
-        <v>1.04487991119348</v>
+        <v>3.414757</v>
       </c>
       <c r="I3">
-        <v>0.004153064805017314</v>
+        <v>0.004456632015781552</v>
       </c>
       <c r="J3">
-        <v>0.004153064805017314</v>
+        <v>0.004456632015781552</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.5055879068865</v>
+        <v>1.551135333333334</v>
       </c>
       <c r="N3">
-        <v>1.5055879068865</v>
+        <v>4.653406</v>
       </c>
       <c r="O3">
-        <v>0.5173946541872568</v>
+        <v>0.3375819633063809</v>
       </c>
       <c r="P3">
-        <v>0.5173946541872568</v>
+        <v>0.3375819633063809</v>
       </c>
       <c r="Q3">
-        <v>1.573158558441543</v>
+        <v>1.765583412482445</v>
       </c>
       <c r="R3">
-        <v>1.573158558441543</v>
+        <v>15.890250712342</v>
       </c>
       <c r="S3">
-        <v>0.0021487735286092</v>
+        <v>0.00150447858562161</v>
       </c>
       <c r="T3">
-        <v>0.0021487735286092</v>
+        <v>0.00150447858562161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.04487991119348</v>
+        <v>1.138252333333333</v>
       </c>
       <c r="H4">
-        <v>1.04487991119348</v>
+        <v>3.414757</v>
       </c>
       <c r="I4">
-        <v>0.004153064805017314</v>
+        <v>0.004456632015781552</v>
       </c>
       <c r="J4">
-        <v>0.004153064805017314</v>
+        <v>0.004456632015781552</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.504329233736682</v>
+        <v>0.01982566666666667</v>
       </c>
       <c r="N4">
-        <v>0.504329233736682</v>
+        <v>0.059477</v>
       </c>
       <c r="O4">
-        <v>0.1733125301366982</v>
+        <v>0.004314766953834163</v>
       </c>
       <c r="P4">
-        <v>0.1733125301366982</v>
+        <v>0.004314766953834163</v>
       </c>
       <c r="Q4">
-        <v>0.5269634849590601</v>
+        <v>0.02256661134322222</v>
       </c>
       <c r="R4">
-        <v>0.5269634849590601</v>
+        <v>0.203099502089</v>
       </c>
       <c r="S4">
-        <v>0.0007197781691792237</v>
+        <v>1.922932854709357E-05</v>
       </c>
       <c r="T4">
-        <v>0.0007197781691792237</v>
+        <v>1.922932854709357E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>242.863845269247</v>
+        <v>1.138252333333333</v>
       </c>
       <c r="H5">
-        <v>242.863845269247</v>
+        <v>3.414757</v>
       </c>
       <c r="I5">
-        <v>0.9653064217176945</v>
+        <v>0.004456632015781552</v>
       </c>
       <c r="J5">
-        <v>0.9653064217176945</v>
+        <v>0.004456632015781552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.90002383905612</v>
+        <v>0.5505563333333333</v>
       </c>
       <c r="N5">
-        <v>0.90002383905612</v>
+        <v>1.651669</v>
       </c>
       <c r="O5">
-        <v>0.309292815676045</v>
+        <v>0.1198205494539455</v>
       </c>
       <c r="P5">
-        <v>0.309292815676045</v>
+        <v>0.1198205494539455</v>
       </c>
       <c r="Q5">
-        <v>218.5832503871592</v>
+        <v>0.626672031048111</v>
       </c>
       <c r="R5">
-        <v>218.5832503871592</v>
+        <v>5.640048279433</v>
       </c>
       <c r="S5">
-        <v>0.2985623411632334</v>
+        <v>0.0005339960968449903</v>
       </c>
       <c r="T5">
-        <v>0.2985623411632334</v>
+        <v>0.0005339960968449904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>242.863845269247</v>
+        <v>245.1331126666666</v>
       </c>
       <c r="H6">
-        <v>242.863845269247</v>
+        <v>735.3993379999999</v>
       </c>
       <c r="I6">
-        <v>0.9653064217176945</v>
+        <v>0.9597767085960608</v>
       </c>
       <c r="J6">
-        <v>0.9653064217176945</v>
+        <v>0.9597767085960607</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.5055879068865</v>
+        <v>2.473323333333334</v>
       </c>
       <c r="N6">
-        <v>1.5055879068865</v>
+        <v>7.41997</v>
       </c>
       <c r="O6">
-        <v>0.5173946541872568</v>
+        <v>0.5382827202858395</v>
       </c>
       <c r="P6">
-        <v>0.5173946541872568</v>
+        <v>0.5382827202858395</v>
       </c>
       <c r="Q6">
-        <v>365.6528684573324</v>
+        <v>606.2934473310955</v>
       </c>
       <c r="R6">
-        <v>365.6528684573324</v>
+        <v>5456.641025979859</v>
       </c>
       <c r="S6">
-        <v>0.4994443822493649</v>
+        <v>0.516631217570077</v>
       </c>
       <c r="T6">
-        <v>0.4994443822493649</v>
+        <v>0.516631217570077</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>242.863845269247</v>
+        <v>245.1331126666666</v>
       </c>
       <c r="H7">
-        <v>242.863845269247</v>
+        <v>735.3993379999999</v>
       </c>
       <c r="I7">
-        <v>0.9653064217176945</v>
+        <v>0.9597767085960608</v>
       </c>
       <c r="J7">
-        <v>0.9653064217176945</v>
+        <v>0.9597767085960607</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.504329233736682</v>
+        <v>1.551135333333334</v>
       </c>
       <c r="N7">
-        <v>0.504329233736682</v>
+        <v>4.653406</v>
       </c>
       <c r="O7">
-        <v>0.1733125301366982</v>
+        <v>0.3375819633063809</v>
       </c>
       <c r="P7">
-        <v>0.1733125301366982</v>
+        <v>0.3375819633063809</v>
       </c>
       <c r="Q7">
-        <v>122.4833369869835</v>
+        <v>380.2346324272476</v>
       </c>
       <c r="R7">
-        <v>122.4833369869835</v>
+        <v>3422.111691845228</v>
       </c>
       <c r="S7">
-        <v>0.1672996983050962</v>
+        <v>0.3240033056235944</v>
       </c>
       <c r="T7">
-        <v>0.1672996983050962</v>
+        <v>0.3240033056235944</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.79869723343197</v>
+        <v>245.1331126666666</v>
       </c>
       <c r="H8">
-        <v>0.79869723343197</v>
+        <v>735.3993379999999</v>
       </c>
       <c r="I8">
-        <v>0.003174567081342612</v>
+        <v>0.9597767085960608</v>
       </c>
       <c r="J8">
-        <v>0.003174567081342612</v>
+        <v>0.9597767085960607</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.90002383905612</v>
+        <v>0.01982566666666667</v>
       </c>
       <c r="N8">
-        <v>0.90002383905612</v>
+        <v>0.059477</v>
       </c>
       <c r="O8">
-        <v>0.309292815676045</v>
+        <v>0.004314766953834163</v>
       </c>
       <c r="P8">
-        <v>0.309292815676045</v>
+        <v>0.004314766953834163</v>
       </c>
       <c r="Q8">
-        <v>0.7188465502769437</v>
+        <v>4.859927380691778</v>
       </c>
       <c r="R8">
-        <v>0.7188465502769437</v>
+        <v>43.739346426226</v>
       </c>
       <c r="S8">
-        <v>0.0009818707911409404</v>
+        <v>0.004141212825310004</v>
       </c>
       <c r="T8">
-        <v>0.0009818707911409404</v>
+        <v>0.004141212825310004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.79869723343197</v>
+        <v>245.1331126666666</v>
       </c>
       <c r="H9">
-        <v>0.79869723343197</v>
+        <v>735.3993379999999</v>
       </c>
       <c r="I9">
-        <v>0.003174567081342612</v>
+        <v>0.9597767085960608</v>
       </c>
       <c r="J9">
-        <v>0.003174567081342612</v>
+        <v>0.9597767085960607</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.5055879068865</v>
+        <v>0.5505563333333333</v>
       </c>
       <c r="N9">
-        <v>1.5055879068865</v>
+        <v>1.651669</v>
       </c>
       <c r="O9">
-        <v>0.5173946541872568</v>
+        <v>0.1198205494539455</v>
       </c>
       <c r="P9">
-        <v>0.5173946541872568</v>
+        <v>0.1198205494539455</v>
       </c>
       <c r="Q9">
-        <v>1.202508895918878</v>
+        <v>134.9595876883469</v>
       </c>
       <c r="R9">
-        <v>1.202508895918878</v>
+        <v>1214.636289195122</v>
       </c>
       <c r="S9">
-        <v>0.00164250403724551</v>
+        <v>0.1150009725770793</v>
       </c>
       <c r="T9">
-        <v>0.00164250403724551</v>
+        <v>0.1150009725770794</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.79869723343197</v>
+        <v>1.996800333333334</v>
       </c>
       <c r="H10">
-        <v>0.79869723343197</v>
+        <v>5.990401</v>
       </c>
       <c r="I10">
-        <v>0.003174567081342612</v>
+        <v>0.007818129630884373</v>
       </c>
       <c r="J10">
-        <v>0.003174567081342612</v>
+        <v>0.007818129630884373</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.504329233736682</v>
+        <v>2.473323333333334</v>
       </c>
       <c r="N10">
-        <v>0.504329233736682</v>
+        <v>7.41997</v>
       </c>
       <c r="O10">
-        <v>0.1733125301366982</v>
+        <v>0.5382827202858395</v>
       </c>
       <c r="P10">
-        <v>0.1733125301366982</v>
+        <v>0.5382827202858395</v>
       </c>
       <c r="Q10">
-        <v>0.4028063637243533</v>
+        <v>4.938732856441112</v>
       </c>
       <c r="R10">
-        <v>0.4028063637243533</v>
+        <v>44.44859570797</v>
       </c>
       <c r="S10">
-        <v>0.0005501922529561614</v>
+        <v>0.004208364085259766</v>
       </c>
       <c r="T10">
-        <v>0.0005501922529561614</v>
+        <v>0.004208364085259766</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.88506656707513</v>
+        <v>1.996800333333334</v>
       </c>
       <c r="H11">
-        <v>6.88506656707513</v>
+        <v>5.990401</v>
       </c>
       <c r="I11">
-        <v>0.02736594639594554</v>
+        <v>0.007818129630884373</v>
       </c>
       <c r="J11">
-        <v>0.02736594639594554</v>
+        <v>0.007818129630884373</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.90002383905612</v>
+        <v>1.551135333333334</v>
       </c>
       <c r="N11">
-        <v>0.90002383905612</v>
+        <v>4.653406</v>
       </c>
       <c r="O11">
-        <v>0.309292815676045</v>
+        <v>0.3375819633063809</v>
       </c>
       <c r="P11">
-        <v>0.309292815676045</v>
+        <v>0.3375819633063809</v>
       </c>
       <c r="Q11">
-        <v>6.1967240438559</v>
+        <v>3.097307550645112</v>
       </c>
       <c r="R11">
-        <v>6.1967240438559</v>
+        <v>27.875767955806</v>
       </c>
       <c r="S11">
-        <v>0.008464090614441712</v>
+        <v>0.002639259550177738</v>
       </c>
       <c r="T11">
-        <v>0.008464090614441712</v>
+        <v>0.002639259550177738</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.88506656707513</v>
+        <v>1.996800333333334</v>
       </c>
       <c r="H12">
-        <v>6.88506656707513</v>
+        <v>5.990401</v>
       </c>
       <c r="I12">
-        <v>0.02736594639594554</v>
+        <v>0.007818129630884373</v>
       </c>
       <c r="J12">
-        <v>0.02736594639594554</v>
+        <v>0.007818129630884373</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.5055879068865</v>
+        <v>0.01982566666666667</v>
       </c>
       <c r="N12">
-        <v>1.5055879068865</v>
+        <v>0.059477</v>
       </c>
       <c r="O12">
-        <v>0.5173946541872568</v>
+        <v>0.004314766953834163</v>
       </c>
       <c r="P12">
-        <v>0.5173946541872568</v>
+        <v>0.004314766953834163</v>
       </c>
       <c r="Q12">
-        <v>10.36607296149687</v>
+        <v>0.03958789780855556</v>
       </c>
       <c r="R12">
-        <v>10.36607296149687</v>
+        <v>0.356291080277</v>
       </c>
       <c r="S12">
-        <v>0.01415899437203725</v>
+        <v>3.373340737213158E-05</v>
       </c>
       <c r="T12">
-        <v>0.01415899437203725</v>
+        <v>3.373340737213158E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.88506656707513</v>
+        <v>1.996800333333334</v>
       </c>
       <c r="H13">
-        <v>6.88506656707513</v>
+        <v>5.990401</v>
       </c>
       <c r="I13">
-        <v>0.02736594639594554</v>
+        <v>0.007818129630884373</v>
       </c>
       <c r="J13">
-        <v>0.02736594639594554</v>
+        <v>0.007818129630884373</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.504329233736682</v>
+        <v>0.5505563333333333</v>
       </c>
       <c r="N13">
-        <v>0.504329233736682</v>
+        <v>1.651669</v>
       </c>
       <c r="O13">
-        <v>0.1733125301366982</v>
+        <v>0.1198205494539455</v>
       </c>
       <c r="P13">
-        <v>0.1733125301366982</v>
+        <v>0.1198205494539455</v>
       </c>
       <c r="Q13">
-        <v>3.472340345999048</v>
+        <v>1.099351069918778</v>
       </c>
       <c r="R13">
-        <v>3.472340345999048</v>
+        <v>9.894159629269001</v>
       </c>
       <c r="S13">
-        <v>0.004742861409466578</v>
+        <v>0.0009367725880747377</v>
       </c>
       <c r="T13">
-        <v>0.004742861409466578</v>
+        <v>0.0009367725880747379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.138233333333333</v>
+      </c>
+      <c r="H14">
+        <v>21.4147</v>
+      </c>
+      <c r="I14">
+        <v>0.02794852975727327</v>
+      </c>
+      <c r="J14">
+        <v>0.02794852975727327</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.473323333333334</v>
+      </c>
+      <c r="N14">
+        <v>7.41997</v>
+      </c>
+      <c r="O14">
+        <v>0.5382827202858395</v>
+      </c>
+      <c r="P14">
+        <v>0.5382827202858395</v>
+      </c>
+      <c r="Q14">
+        <v>17.65515906211111</v>
+      </c>
+      <c r="R14">
+        <v>158.896431559</v>
+      </c>
+      <c r="S14">
+        <v>0.01504421062573479</v>
+      </c>
+      <c r="T14">
+        <v>0.01504421062573479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.138233333333333</v>
+      </c>
+      <c r="H15">
+        <v>21.4147</v>
+      </c>
+      <c r="I15">
+        <v>0.02794852975727327</v>
+      </c>
+      <c r="J15">
+        <v>0.02794852975727327</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.551135333333334</v>
+      </c>
+      <c r="N15">
+        <v>4.653406</v>
+      </c>
+      <c r="O15">
+        <v>0.3375819633063809</v>
+      </c>
+      <c r="P15">
+        <v>0.3375819633063809</v>
+      </c>
+      <c r="Q15">
+        <v>11.07236594091111</v>
+      </c>
+      <c r="R15">
+        <v>99.65129346820001</v>
+      </c>
+      <c r="S15">
+        <v>0.009434919546987119</v>
+      </c>
+      <c r="T15">
+        <v>0.009434919546987119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.138233333333333</v>
+      </c>
+      <c r="H16">
+        <v>21.4147</v>
+      </c>
+      <c r="I16">
+        <v>0.02794852975727327</v>
+      </c>
+      <c r="J16">
+        <v>0.02794852975727327</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01982566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.059477</v>
+      </c>
+      <c r="O16">
+        <v>0.004314766953834163</v>
+      </c>
+      <c r="P16">
+        <v>0.004314766953834163</v>
+      </c>
+      <c r="Q16">
+        <v>0.1415202346555555</v>
+      </c>
+      <c r="R16">
+        <v>1.2736821119</v>
+      </c>
+      <c r="S16">
+        <v>0.0001205913926049334</v>
+      </c>
+      <c r="T16">
+        <v>0.0001205913926049334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.138233333333333</v>
+      </c>
+      <c r="H17">
+        <v>21.4147</v>
+      </c>
+      <c r="I17">
+        <v>0.02794852975727327</v>
+      </c>
+      <c r="J17">
+        <v>0.02794852975727327</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5505563333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.651669</v>
+      </c>
+      <c r="O17">
+        <v>0.1198205494539455</v>
+      </c>
+      <c r="P17">
+        <v>0.1198205494539455</v>
+      </c>
+      <c r="Q17">
+        <v>3.929999570477777</v>
+      </c>
+      <c r="R17">
+        <v>35.3699961343</v>
+      </c>
+      <c r="S17">
+        <v>0.003348808191946429</v>
+      </c>
+      <c r="T17">
+        <v>0.00334880819194643</v>
       </c>
     </row>
   </sheetData>
